--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/27.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/27.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1312363856024188</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.947487110170644</v>
+        <v>-1.939943771708964</v>
       </c>
       <c r="F2" t="n">
-        <v>0.132376216146343</v>
+        <v>0.128825379189253</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1484757145246725</v>
+        <v>-0.1457994463740369</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1275609885347492</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.090803970726151</v>
+        <v>-2.081369139962699</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06881886270099639</v>
+        <v>0.06598782945272443</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1210151300308617</v>
+        <v>-0.1190396849638623</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.142923763804098</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.303195706462549</v>
+        <v>-2.293134515068097</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05589451700027259</v>
+        <v>0.05269847172927344</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1442663958785828</v>
+        <v>-0.1422179484070379</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1784604019671086</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.472992729218821</v>
+        <v>-2.462984829579687</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001306238977378155</v>
+        <v>-0.0007553489269849281</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1696026104001214</v>
+        <v>-0.1673044947050311</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2264919073365855</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.544337249157029</v>
+        <v>-2.53245610781726</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07412130544705614</v>
+        <v>-0.07336062039169271</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1722511376370298</v>
+        <v>-0.1709531548842119</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2766341322935418</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.343003187637129</v>
+        <v>-2.331367334376632</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.127183833214951</v>
+        <v>-0.1247426328069516</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1479997388470363</v>
+        <v>-0.1469003226345821</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.3160405695087407</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.035738987001575</v>
+        <v>-2.023164322818624</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1780241677884828</v>
+        <v>-0.1731227863473023</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1162904144086812</v>
+        <v>-0.1161283490705903</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3349617034661277</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.682498602007352</v>
+        <v>-1.669781583135537</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1079038981745016</v>
+        <v>-0.1030696789455029</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07330367851614726</v>
+        <v>-0.07344822327714723</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3215350284011333</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.251473424945922</v>
+        <v>-1.238265829915562</v>
       </c>
       <c r="F10" t="n">
-        <v>0.008069181734467247</v>
+        <v>0.01016289069683032</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01047196897198232</v>
+        <v>-0.01078149916725496</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.268076072773173</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9396757749880964</v>
+        <v>-0.9248957081638277</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0744765490532676</v>
+        <v>0.07405313510690407</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01593546892816267</v>
+        <v>-0.01621287806543532</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1721282626889651</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5765866355966485</v>
+        <v>-0.5590777388904714</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1472190650385208</v>
+        <v>0.1447150825626124</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02263124947306996</v>
+        <v>-0.02156833446288843</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.03665265055663073</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1343497492451309</v>
+        <v>-0.1140667611662272</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01126814710164821</v>
+        <v>0.008463394719012597</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04610197445454794</v>
+        <v>0.04677651667254776</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.130062928272497</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3181483550892931</v>
+        <v>0.3392416698586511</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1620191206159416</v>
+        <v>-0.1646778681894864</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1132306055302572</v>
+        <v>0.1151461886255294</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.3203189551027996</v>
       </c>
       <c r="E15" t="n">
-        <v>0.862901058095874</v>
+        <v>0.8837417845455049</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1785468650050281</v>
+        <v>-0.1863245411852987</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1948531340044171</v>
+        <v>0.1969775039766893</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5212692855102536</v>
       </c>
       <c r="E16" t="n">
-        <v>1.564181136784504</v>
+        <v>1.582906253550408</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.512197054739484</v>
+        <v>-0.5212332923741179</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2600647219367632</v>
+        <v>0.2617685980588537</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.730779229455869</v>
       </c>
       <c r="E17" t="n">
-        <v>2.270983117352951</v>
+        <v>2.28664797332031</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6785724547947121</v>
+        <v>-0.6875940919484369</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3699245804890974</v>
+        <v>0.3721277930582786</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.9497426004839736</v>
       </c>
       <c r="E18" t="n">
-        <v>3.036005975594472</v>
+        <v>3.048546328647287</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9573073157339099</v>
+        <v>-0.9660208827404531</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4805159231349768</v>
+        <v>0.4835586633564305</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.179446199026173</v>
       </c>
       <c r="E19" t="n">
-        <v>3.666415319950394</v>
+        <v>3.676688218318028</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.197453105630391</v>
+        <v>-1.205141718877116</v>
       </c>
       <c r="G19" t="n">
-        <v>0.600655980295399</v>
+        <v>0.6031263816652166</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.414650617283433</v>
       </c>
       <c r="E20" t="n">
-        <v>4.330604336937579</v>
+        <v>4.335193268087306</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.458020588174412</v>
+        <v>-1.465148542954228</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7117729402540056</v>
+        <v>0.7149135036975501</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.642188610495316</v>
       </c>
       <c r="E21" t="n">
-        <v>4.85581867639162</v>
+        <v>4.858305138290437</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.731697842526702</v>
+        <v>-1.737390570033155</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8599035793652385</v>
+        <v>0.8621783342908743</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.849724068650005</v>
       </c>
       <c r="E22" t="n">
-        <v>5.376958021623935</v>
+        <v>5.373845199094117</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.951799362207143</v>
+        <v>-1.957366525577778</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9467297192353971</v>
+        <v>0.9490701763251237</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.025003404056962</v>
       </c>
       <c r="E23" t="n">
-        <v>5.725223292748387</v>
+        <v>5.719007868025388</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.202039194580121</v>
+        <v>-2.205806118654666</v>
       </c>
       <c r="G23" t="n">
-        <v>1.055948616675822</v>
+        <v>1.058102187609913</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.162907993586455</v>
       </c>
       <c r="E24" t="n">
-        <v>6.150644805236909</v>
+        <v>6.14046096980282</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.432937769892832</v>
+        <v>-2.434719028563741</v>
       </c>
       <c r="G24" t="n">
-        <v>1.176941341921335</v>
+        <v>1.177766269092699</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.25891284858271</v>
       </c>
       <c r="E25" t="n">
-        <v>6.443035495970376</v>
+        <v>6.427760472843289</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.556875412137708</v>
+        <v>-2.558809245834116</v>
       </c>
       <c r="G25" t="n">
-        <v>1.25098768085177</v>
+        <v>1.251770266628497</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.312375507958038</v>
       </c>
       <c r="E26" t="n">
-        <v>6.610028496368058</v>
+        <v>6.590617156999427</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.605551955440513</v>
+        <v>-2.608715879653512</v>
       </c>
       <c r="G26" t="n">
-        <v>1.315355360987571</v>
+        <v>1.315698472288934</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.323876699692242</v>
       </c>
       <c r="E27" t="n">
-        <v>6.715648375264394</v>
+        <v>6.694445556888217</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.690686629597354</v>
+        <v>-2.690603406856172</v>
       </c>
       <c r="G27" t="n">
-        <v>1.32581368546275</v>
+        <v>1.326802138020295</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.296733690616604</v>
       </c>
       <c r="E28" t="n">
-        <v>6.900894896894616</v>
+        <v>6.875605403911987</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.716936834223801</v>
+        <v>-2.717630357066983</v>
       </c>
       <c r="G28" t="n">
-        <v>1.366064291232921</v>
+        <v>1.366874617923375</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.236571425334033</v>
       </c>
       <c r="E29" t="n">
-        <v>6.865655176172444</v>
+        <v>6.839340729429996</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.73882660522675</v>
+        <v>-2.737799461394796</v>
       </c>
       <c r="G29" t="n">
-        <v>1.352170473599834</v>
+        <v>1.352881517020106</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.151233203919515</v>
       </c>
       <c r="E30" t="n">
-        <v>6.801541544404461</v>
+        <v>6.774335008278468</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.640482875991458</v>
+        <v>-2.641942194058321</v>
       </c>
       <c r="G30" t="n">
-        <v>1.335506944738293</v>
+        <v>1.336126005128838</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.048947515701052</v>
       </c>
       <c r="E31" t="n">
-        <v>6.826946381186272</v>
+        <v>6.795933499687281</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.540575435250803</v>
+        <v>-2.542494668466302</v>
       </c>
       <c r="G31" t="n">
-        <v>1.297300406295394</v>
+        <v>1.297436190767848</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.937322758233738</v>
       </c>
       <c r="E32" t="n">
-        <v>6.787151310420465</v>
+        <v>6.753431499760929</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.406211589588748</v>
+        <v>-2.409311271685747</v>
       </c>
       <c r="G32" t="n">
-        <v>1.251456356288952</v>
+        <v>1.250724872195406</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.822771375057102</v>
       </c>
       <c r="E33" t="n">
-        <v>6.621539515516782</v>
+        <v>6.586124589023701</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.371916519981394</v>
+        <v>-2.373824072812166</v>
       </c>
       <c r="G33" t="n">
-        <v>1.193304100876149</v>
+        <v>1.192842725679422</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.708511529780338</v>
       </c>
       <c r="E34" t="n">
-        <v>6.322048610917227</v>
+        <v>6.289644303587599</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.334029002046358</v>
+        <v>-2.33734185116463</v>
       </c>
       <c r="G34" t="n">
-        <v>1.143477039677708</v>
+        <v>1.142907620922254</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.59780099009371</v>
       </c>
       <c r="E35" t="n">
-        <v>6.126362745437006</v>
+        <v>6.094044580944742</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.297081025057823</v>
+        <v>-2.299165243707595</v>
       </c>
       <c r="G35" t="n">
-        <v>1.083248595879633</v>
+        <v>1.083139092272815</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.490858063397074</v>
       </c>
       <c r="E36" t="n">
-        <v>5.929419778550514</v>
+        <v>5.897145415500977</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.232564420016749</v>
+        <v>-2.236360545053112</v>
       </c>
       <c r="G36" t="n">
-        <v>1.062054537792002</v>
+        <v>1.060528787537003</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.390386047359444</v>
       </c>
       <c r="E37" t="n">
-        <v>5.62302284648096</v>
+        <v>5.592297594455877</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.188606752143761</v>
+        <v>-2.191412964574488</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9564404990880307</v>
+        <v>0.9558053781684855</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.296275819108444</v>
       </c>
       <c r="E38" t="n">
-        <v>5.316655115373224</v>
+        <v>5.287010298935414</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.142112250712819</v>
+        <v>-2.145209012713636</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8827139106895051</v>
+        <v>0.8827620922765052</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.210843009319424</v>
       </c>
       <c r="E39" t="n">
-        <v>5.002175357072399</v>
+        <v>4.970908427205589</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.083362835630835</v>
+        <v>-2.086766207730743</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8017162827982541</v>
+        <v>0.8022638008323449</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.13411397007175</v>
       </c>
       <c r="E40" t="n">
-        <v>4.710843201204841</v>
+        <v>4.680481501154395</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.103819569432557</v>
+        <v>-2.105873857096465</v>
       </c>
       <c r="G40" t="n">
-        <v>0.761658403376083</v>
+        <v>0.7616890643859922</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.065835621908417</v>
       </c>
       <c r="E41" t="n">
-        <v>4.389466175722563</v>
+        <v>4.360510501983662</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.998560322414676</v>
+        <v>-2.000333550821084</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6820142400651045</v>
+        <v>0.6821909058841044</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.004757142067472</v>
       </c>
       <c r="E42" t="n">
-        <v>4.010034718049575</v>
+        <v>3.983745092124673</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.908113263279064</v>
+        <v>-1.909641933630245</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6030212582026712</v>
+        <v>0.6030139579622166</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9478666232468014</v>
       </c>
       <c r="E43" t="n">
-        <v>3.707898206309292</v>
+        <v>3.683494962517844</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.855559562270851</v>
+        <v>-1.857072172093032</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5628071536347728</v>
+        <v>0.5633006498895</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8936386203903255</v>
       </c>
       <c r="E44" t="n">
-        <v>3.405148474370828</v>
+        <v>3.382700234973107</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.760449109532876</v>
+        <v>-1.762188026809148</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5140503076869678</v>
+        <v>0.5136195935001496</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.8386239112740193</v>
       </c>
       <c r="E45" t="n">
-        <v>3.122583907289176</v>
+        <v>3.100496299769909</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.677838128501171</v>
+        <v>-1.679771232173534</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4187588089857206</v>
+        <v>0.4193837095686295</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7824544848765826</v>
       </c>
       <c r="E46" t="n">
-        <v>2.827059953352619</v>
+        <v>2.806717103301989</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.599896381264192</v>
+        <v>-1.601537475318373</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3807990186701853</v>
+        <v>0.3817816310353669</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7241732864755011</v>
       </c>
       <c r="E47" t="n">
-        <v>2.496373661242708</v>
+        <v>2.477663144957713</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.477938564230588</v>
+        <v>-1.480267340935588</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3170810599348388</v>
+        <v>0.3178826263367477</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6645876483063931</v>
       </c>
       <c r="E48" t="n">
-        <v>2.202264493906242</v>
+        <v>2.186002478269701</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.373174273515525</v>
+        <v>-1.375857841906616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2891561801481191</v>
+        <v>0.2890787975993009</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6046359799283128</v>
       </c>
       <c r="E49" t="n">
-        <v>1.920698599718772</v>
+        <v>1.906052857318867</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.286285351577458</v>
+        <v>-1.290414367578548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.234976715590679</v>
+        <v>0.2353344273729517</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5454964660596929</v>
       </c>
       <c r="E50" t="n">
-        <v>1.786550841174172</v>
+        <v>1.77128457833563</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.164029684733309</v>
+        <v>-1.169090211416399</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1968884410431438</v>
+        <v>0.1968986613797802</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4890502393653876</v>
       </c>
       <c r="E51" t="n">
-        <v>1.509827926504246</v>
+        <v>1.497259832537704</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.08820938737242</v>
+        <v>-1.093818892137691</v>
       </c>
       <c r="G51" t="n">
-        <v>0.166246411759243</v>
+        <v>0.1657047339175158</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4360848336687281</v>
       </c>
       <c r="E52" t="n">
-        <v>1.349853377279562</v>
+        <v>1.339397972900564</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.005245074702715</v>
+        <v>-1.011045845767895</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1436069060616127</v>
+        <v>0.143170351682431</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3885038893689606</v>
       </c>
       <c r="E53" t="n">
-        <v>1.106237053070991</v>
+        <v>1.097644670055993</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9313797817355532</v>
+        <v>-0.9382653685322786</v>
       </c>
       <c r="G53" t="n">
-        <v>0.100120833721988</v>
+        <v>0.09999234948998802</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3466644862519871</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9605461543196661</v>
+        <v>0.9524312070303955</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9388260269991876</v>
+        <v>-0.9459846427889129</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04934036112018344</v>
+        <v>0.04903667111727443</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3115404546827141</v>
       </c>
       <c r="E55" t="n">
-        <v>0.7991830993605276</v>
+        <v>0.7917923359243477</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8928885339149272</v>
+        <v>-0.8990134356562892</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02136145955410004</v>
+        <v>0.0216899703745545</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2834017503007491</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6520087917488397</v>
+        <v>0.6463817664064777</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8429753298791224</v>
+        <v>-0.8503295921130295</v>
       </c>
       <c r="G56" t="n">
-        <v>0.015093473099829</v>
+        <v>0.01523363771655623</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2628445848827229</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5081122921012421</v>
+        <v>0.5026575524336072</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8102746327870403</v>
+        <v>-0.8183589190664018</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01306209428525435</v>
+        <v>-0.01235835110543636</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2503168826559123</v>
       </c>
       <c r="E58" t="n">
-        <v>0.397627532965999</v>
+        <v>0.3926954905149094</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.8050768615834053</v>
+        <v>-0.8130034626689486</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02827287529634118</v>
+        <v>-0.02795166471634126</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2452728719133634</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2518183703193109</v>
+        <v>0.2466760809431305</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7404799538973318</v>
+        <v>-0.7482036082982387</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09401592073377807</v>
+        <v>-0.09211493811941494</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.247412145554889</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1914585221930544</v>
+        <v>0.1867221261861466</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7234149118107909</v>
+        <v>-0.7320394158837885</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08130036191005421</v>
+        <v>-0.07984907410769096</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2553962226671498</v>
       </c>
       <c r="E61" t="n">
-        <v>0.03323895077364231</v>
+        <v>0.02909971443591615</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6958973854414346</v>
+        <v>-0.7043875650900687</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1377472811526754</v>
+        <v>-0.1361353880603122</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2681006204262824</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05373319390560707</v>
+        <v>-0.05805055611042409</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7144137153303387</v>
+        <v>-0.7231710837796091</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1695996903039396</v>
+        <v>-0.1686068576021217</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2840371067731076</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1475777849487637</v>
+        <v>-0.1511300819539446</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.748297051376057</v>
+        <v>-0.7567799307842364</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1849739967012082</v>
+        <v>-0.1835183287545722</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3015550852144899</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2601445726616425</v>
+        <v>-0.2640604216414597</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.7510755228930561</v>
+        <v>-0.7598533320155992</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2180864273549266</v>
+        <v>-0.2171855776828359</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3195826489372193</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4130495690301469</v>
+        <v>-0.4172953888785094</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7320583965089704</v>
+        <v>-0.7418962005455132</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2385913427436483</v>
+        <v>-0.2374043236457396</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3365333022092163</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4369680768554132</v>
+        <v>-0.4427250464778663</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7625091594929622</v>
+        <v>-0.7723980652126868</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.253740801734917</v>
+        <v>-0.2532838066824626</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3515592154342374</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.523805897110299</v>
+        <v>-0.5286649371568432</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8031525181995877</v>
+        <v>-0.8127289736278578</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2685821905790039</v>
+        <v>-0.2681266555746404</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3630458680808334</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5565299549718357</v>
+        <v>-0.5630841108519249</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7504170412040564</v>
+        <v>-0.7628581109866894</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3207205079053536</v>
+        <v>-0.3194108447678085</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.3699045957664647</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6375129823821776</v>
+        <v>-0.6434130367175397</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7967648078018621</v>
+        <v>-0.8085561561840408</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.318442832883536</v>
+        <v>-0.3180164988409906</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.3723148219777415</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.7473275794436935</v>
+        <v>-0.7521442780956014</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7925715496847723</v>
+        <v>-0.8057981253403143</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3587445403368888</v>
+        <v>-0.3574845188344346</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.3706291735979672</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7753809434624133</v>
+        <v>-0.7806663175515027</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9222311203979193</v>
+        <v>-0.933670597190189</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.403836665576513</v>
+        <v>-0.4018758209904227</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.3657915640962814</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8175748732415837</v>
+        <v>-0.8230033320435823</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9887961729105378</v>
+        <v>-1.000216669077626</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4210958940591448</v>
+        <v>-0.4199760371734178</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.3583616287545651</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8698256142709334</v>
+        <v>-0.8739312695025686</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.023834406996165</v>
+        <v>-1.034342373106435</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4544725934173177</v>
+        <v>-0.4529176422004999</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.3492626302625711</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8126355305500397</v>
+        <v>-0.816947052562493</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.048693185791976</v>
+        <v>-1.059430379452519</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4690248927394046</v>
+        <v>-0.4676232465721323</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.3394327387830311</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7970743379971348</v>
+        <v>-0.8004616495680429</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.115123913880231</v>
+        <v>-1.123944064397411</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4577051398905895</v>
+        <v>-0.4564830796384989</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.3297042499893349</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7138442965748844</v>
+        <v>-0.7166607293422472</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.158510702949674</v>
+        <v>-1.165962788405672</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.460304025492407</v>
+        <v>-0.4590659047113164</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3210531331507079</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5620241159379251</v>
+        <v>-0.5666904296364693</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.14218006505286</v>
+        <v>-1.150128566859767</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4409175069413213</v>
+        <v>-0.4390778463467763</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3137420656030593</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4225252811401444</v>
+        <v>-0.4279026382589611</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.167243250581399</v>
+        <v>-1.174067515358306</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.454050639519045</v>
+        <v>-0.4519175092582274</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.3081026381709645</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3193962442868994</v>
+        <v>-0.3253766012672614</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.249890732815377</v>
+        <v>-1.255414094743284</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3973219309948784</v>
+        <v>-0.396082350165697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.3038090046085712</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1304485007462228</v>
+        <v>-0.1361996301763122</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.307708637215361</v>
+        <v>-1.311998258506451</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3749423138574299</v>
+        <v>-0.3735114667283394</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.301002798311978</v>
       </c>
       <c r="E81" t="n">
-        <v>0.0286894409223708</v>
+        <v>0.02171917133637267</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.301024537055181</v>
+        <v>-1.303229209672453</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3240567177930799</v>
+        <v>-0.3240289768793527</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2997487021155029</v>
       </c>
       <c r="E82" t="n">
-        <v>0.240974593148132</v>
+        <v>0.2336144907218612</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.289792387091821</v>
+        <v>-1.291521084031457</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2880971933620896</v>
+        <v>-0.2885045467794531</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.3005138491313201</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4234017619148103</v>
+        <v>0.4165001145890849</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.230879446623655</v>
+        <v>-1.232281092790927</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2702232846331853</v>
+        <v>-0.270324027951458</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.3031565403557883</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6293240245603914</v>
+        <v>0.6236955391699383</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.152828195779857</v>
+        <v>-1.154546672382857</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2457119972830101</v>
+        <v>-0.246449321568919</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.3070456588117157</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7428135626667245</v>
+        <v>0.7381209681025439</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.064067492189245</v>
+        <v>-1.066333486826335</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2097845939100197</v>
+        <v>-0.2107380053133831</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.3102851412083191</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9687049030516638</v>
+        <v>0.9636005749258471</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9984704515608989</v>
+        <v>-1.000540799753807</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1809997457977547</v>
+        <v>-0.1816494671982091</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.3114196269462846</v>
       </c>
       <c r="E87" t="n">
-        <v>1.111783775768353</v>
+        <v>1.107256166638445</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.943153609540641</v>
+        <v>-0.9447625825368223</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1512089245508536</v>
+        <v>-0.1517257815750353</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.307631831123815</v>
       </c>
       <c r="E88" t="n">
-        <v>1.213601689435962</v>
+        <v>1.209996830699508</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8889128229633828</v>
+        <v>-0.8892004524372918</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1148464268467725</v>
+        <v>-0.1155341094975905</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2968359066953774</v>
       </c>
       <c r="E89" t="n">
-        <v>1.335607688056565</v>
+        <v>1.332157594417748</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7938111305139538</v>
+        <v>-0.7920269517468633</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1131936524078638</v>
+        <v>-0.1136053859695001</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.276530449015872</v>
       </c>
       <c r="E90" t="n">
-        <v>1.37187966277901</v>
+        <v>1.369997660789829</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6937292140264352</v>
+        <v>-0.6919362749707993</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07856131169150948</v>
+        <v>-0.07943150035369108</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.244172115434841</v>
       </c>
       <c r="E91" t="n">
-        <v>1.415821270122998</v>
+        <v>1.414990502759271</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5887867974442815</v>
+        <v>-0.5865967253079185</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01648152691416252</v>
+        <v>-0.01833140784534384</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1986332286486256</v>
       </c>
       <c r="E92" t="n">
-        <v>1.439209780491265</v>
+        <v>1.438416974377901</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4615173254559521</v>
+        <v>-0.4585344472062257</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02044993762525237</v>
+        <v>-0.02161067585752478</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1393851121570894</v>
       </c>
       <c r="E93" t="n">
-        <v>1.409934356220454</v>
+        <v>1.409972317470818</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3531350355716176</v>
+        <v>-0.349882048425073</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0139600238611632</v>
+        <v>-0.01475429002261753</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.06904461129385282</v>
       </c>
       <c r="E94" t="n">
-        <v>1.410708181708636</v>
+        <v>1.410448293148454</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.213570498609746</v>
+        <v>-0.2104868770417468</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.01633552210507165</v>
+        <v>-0.01767584625252584</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.00854445361558941</v>
       </c>
       <c r="E95" t="n">
-        <v>1.335769753394656</v>
+        <v>1.336279310178383</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09729372869786809</v>
+        <v>-0.09437801266032342</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01882344405198008</v>
+        <v>-0.01956952862643442</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.08743066989525501</v>
       </c>
       <c r="E96" t="n">
-        <v>1.25797693106295</v>
+        <v>1.258623732367222</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03028819358191583</v>
+        <v>0.03216143528255169</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03378309679143061</v>
+        <v>-0.03442843804761225</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1615331742999655</v>
       </c>
       <c r="E97" t="n">
-        <v>1.175095841134427</v>
+        <v>1.177407097262335</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1319294414305249</v>
+        <v>0.1323148941265248</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05241039033524379</v>
+        <v>-0.0528819858686073</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.227020712316754</v>
       </c>
       <c r="E98" t="n">
-        <v>1.076290006678362</v>
+        <v>1.079367788053998</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1930704152854176</v>
+        <v>0.1933288437975084</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05767970389533328</v>
+        <v>-0.05800675466769683</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2801901533558478</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9386644135812173</v>
+        <v>0.942365635491671</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1947961921288716</v>
+        <v>0.195045860352417</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05099122359088053</v>
+        <v>-0.05282358394497095</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3249929508663033</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8438109293072429</v>
+        <v>0.8484699427653325</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2116144860880489</v>
+        <v>0.2113910987301399</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04504152762042758</v>
+        <v>-0.04613364359242729</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3620932689082051</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6899277007178296</v>
+        <v>0.696830808091646</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1978111914365981</v>
+        <v>0.1977177483587799</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04933698910388097</v>
+        <v>-0.04956329655797182</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3978671963941409</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6308994164504819</v>
+        <v>0.6370812600673893</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2072372619115047</v>
+        <v>0.2063393323355958</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0814507468634178</v>
+        <v>-0.08171063542359955</v>
       </c>
     </row>
   </sheetData>
